--- a/TC_CreateNewCustomer/Main.rvl.xlsx
+++ b/TC_CreateNewCustomer/Main.rvl.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet name="RVL" sheetId="1" r:id="rId2"/>
-    <sheet name="Manual" sheetId="2" r:id="rId4"/>
+    <sheet name="Cleanup" sheetId="2" r:id="rId4"/>
+    <sheet name="Menu" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="134">
   <si>
     <t>Flow</t>
   </si>
@@ -314,6 +315,108 @@
   </si>
   <si>
     <t>Close</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>GetInnerText</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>LastResult</t>
+  </si>
+  <si>
+    <t>GetText</t>
+  </si>
+  <si>
+    <t>Org_NameAlias</t>
+  </si>
+  <si>
+    <t>GetValue</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>MyVar</t>
+  </si>
+  <si>
+    <t>OrgName</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>SetOutputValue</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>CustomerName</t>
+  </si>
+  <si>
+    <t>Customers_Grid</t>
+  </si>
+  <si>
+    <t>DoClickCell</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>col</t>
+  </si>
+  <si>
+    <t>DfoFindObject</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>DfoSearchRecords</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>RVL</t>
+  </si>
+  <si>
+    <t>DoPlaySheet</t>
+  </si>
+  <si>
+    <t>Cleanup</t>
+  </si>
+  <si>
+    <t>GetOutputValue</t>
+  </si>
+  <si>
+    <t>defValue</t>
+  </si>
+  <si>
+    <t>Modules;Accounts payable;All vendors</t>
+  </si>
+  <si>
+    <t>Modules;Accounts payable;Vendors;All vendors</t>
   </si>
 </sst>
 </file>
@@ -334,7 +437,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="496">
+  <borders count="878">
     <border>
       <left/>
       <right/>
@@ -837,11 +940,393 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="496">
+  <cellXfs count="878">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -1338,6 +1823,388 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="493" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="494" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="495" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="496" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="497" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="498" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="499" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="500" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="501" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="502" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="503" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="504" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="505" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="506" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="507" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="508" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="509" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="510" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="511" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="512" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="513" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="514" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="515" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="516" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="517" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="518" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="519" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="520" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="521" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="522" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="523" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="524" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="525" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="526" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="527" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="528" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="529" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="530" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="531" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="532" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="533" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="534" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="535" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="536" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="537" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="538" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="539" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="540" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="541" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="542" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="543" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="544" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="545" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="546" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="547" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="548" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="549" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="550" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="551" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="552" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="553" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="554" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="555" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="556" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="557" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="558" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="559" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="560" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="561" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="562" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="563" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="564" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="565" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="566" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="567" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="568" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="569" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="570" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="571" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="572" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="573" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="574" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="575" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="576" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="577" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="578" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="579" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="580" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="581" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="582" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="583" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="584" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="585" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="586" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="587" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="588" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="589" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="590" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="591" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="592" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="593" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="594" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="595" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="596" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="597" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="598" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="599" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="600" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="601" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="602" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="603" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="604" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="605" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="606" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="607" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="608" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="609" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="610" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="611" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="612" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="613" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="614" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="615" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="616" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="617" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="618" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="619" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="620" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="621" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="622" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="623" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="624" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="625" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="626" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="627" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="628" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="629" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="630" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="631" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="632" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="633" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="634" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="635" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="636" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="637" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="638" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="639" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="640" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="641" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="642" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="643" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="644" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="645" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="646" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="647" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="648" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="649" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="650" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="651" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="652" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="653" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="654" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="655" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="656" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="657" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="658" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="659" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="660" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="661" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="662" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="663" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="664" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="665" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="666" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="667" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="668" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="669" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="670" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="671" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="672" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="673" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="674" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="675" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="676" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="677" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="678" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="679" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="680" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="681" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="682" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="683" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="684" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="685" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="686" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="687" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="688" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="689" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="690" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="691" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="692" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="693" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="694" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="695" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="696" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="697" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="698" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="699" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="700" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="701" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="702" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="703" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="704" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="705" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="706" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="707" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="708" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="709" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="710" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="711" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="712" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="713" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="714" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="715" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="716" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="717" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="718" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="719" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="720" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="721" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="722" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="723" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="724" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="725" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="726" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="727" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="728" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="729" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="730" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="731" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="732" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="733" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="734" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="735" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="736" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="737" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="738" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="739" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="740" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="741" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="742" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="743" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="744" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="745" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="746" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="747" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="748" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="749" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="750" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="751" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="752" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="753" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="754" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="755" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="756" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="757" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="758" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="759" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="760" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="761" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="762" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="763" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="764" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="765" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="766" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="767" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="768" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="769" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="770" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="771" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="772" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="773" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="774" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="775" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="776" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="777" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="778" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="779" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="780" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="781" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="782" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="783" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="784" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="785" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="786" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="787" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="788" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="789" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="790" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="791" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="792" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="793" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="794" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="795" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="796" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="797" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="798" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="799" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="800" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="801" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="802" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="803" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="804" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="805" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="806" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="807" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="808" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="809" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="810" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="811" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="812" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="813" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="814" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="815" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="816" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="817" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="818" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="819" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="820" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="821" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="822" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="823" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="824" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="825" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="826" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="827" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="828" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="829" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="830" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="831" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="832" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="833" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="834" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="835" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="836" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="837" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="838" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="839" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="840" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="841" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="842" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="843" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="844" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="845" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="846" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="847" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="848" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="849" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="850" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="851" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="852" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="853" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="854" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="855" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="856" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="857" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="858" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="859" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="860" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="861" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="862" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="863" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="864" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="865" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="866" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="867" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="868" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="869" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="870" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="871" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="872" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="873" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="874" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="875" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="876" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="877" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1347,7 +2214,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H49"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="true"/>
@@ -1397,68 +2264,52 @@
       <c r="H2" s="16"/>
     </row>
     <row r="3">
-      <c r="A3" s="443" t="s">
+      <c r="A3" s="501"/>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="502"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="443" t="s">
         <v>52</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>69</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
         <v>70</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="448" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="448" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>50</v>
-      </c>
-      <c r="C4" s="453"/>
-      <c r="D4" s="453"/>
-      <c r="E4" s="453"/>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="449" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="453"/>
-      <c r="D5" s="453"/>
-      <c r="E5" s="453"/>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="450" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
       </c>
       <c r="C6" s="453"/>
       <c r="D6" s="453"/>
@@ -1471,303 +2322,291 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="451" t="s">
+      <c r="A7" s="449" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="453"/>
+      <c r="D7" s="453"/>
+      <c r="E7" s="453"/>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="450" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="453"/>
+      <c r="D8" s="453"/>
+      <c r="E8" s="453"/>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="451" t="s">
         <v>67</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>68</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="452"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="444" t="s">
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="452"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="444" t="s">
         <v>52</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>71</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>70</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
         <v>72</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="459"/>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="460"/>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" t="s">
-        <v>77</v>
-      </c>
-    </row>
     <row r="12">
-      <c r="A12" s="461"/>
+      <c r="A12" s="459"/>
       <c r="B12" t="s">
         <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="462"/>
+      <c r="A13" s="460"/>
       <c r="B13" t="s">
         <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s">
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="463"/>
+      <c r="A14" s="461"/>
       <c r="B14" t="s">
         <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s">
         <v>38</v>
       </c>
       <c r="G14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="462"/>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="457" t="s">
+    <row r="16">
+      <c r="A16" s="463"/>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="457" t="s">
         <v>67</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>68</v>
       </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="447"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18" t="s">
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="447"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C19" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D19" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="24"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26" t="s">
+      <c r="E19" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="24"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="25"/>
+      <c r="B20" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C20" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D20" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="32"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34" t="s">
+      <c r="E20" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="32"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="33"/>
+      <c r="B21" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C21" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D21" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E21" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="F21" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="39" t="s">
+      <c r="G21" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="40"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="435"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="50" t="s">
+      <c r="H21" s="40"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="435"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C23" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D23" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="56"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="425" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="426" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" t="s">
-        <v>50</v>
-      </c>
+      <c r="E23" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="56"/>
     </row>
     <row r="24">
-      <c r="A24" s="427" t="s">
+      <c r="A24" s="425" t="s">
         <v>7</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
         <v>44</v>
@@ -1783,14 +2622,14 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="428" t="s">
+      <c r="A25" s="426" t="s">
         <v>7</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
         <v>46</v>
@@ -1802,16 +2641,18 @@
         <v>70</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="437"/>
+      <c r="A26" s="427" t="s">
+        <v>7</v>
+      </c>
       <c r="B26" t="s">
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
         <v>44</v>
@@ -1827,119 +2668,117 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="489" t="s">
-        <v>84</v>
+      <c r="A27" s="428" t="s">
+        <v>7</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
       </c>
       <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="437"/>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="489" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
         <v>35</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D29" t="s">
         <v>92</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E29" t="s">
         <v>93</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F29" t="s">
         <v>94</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G29" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="493"/>
-      <c r="B28" t="s">
+    <row r="30">
+      <c r="A30" s="493"/>
+      <c r="B30" t="s">
         <v>24</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E30" t="s">
         <v>95</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F30" t="s">
         <v>38</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G30" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="490" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="31">
+      <c r="A31" s="490" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
         <v>87</v>
       </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
         <v>91</v>
       </c>
-      <c r="E29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="492" t="s">
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="492" t="s">
         <v>18</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>90</v>
       </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="429" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="488" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" t="s">
-        <v>83</v>
-      </c>
       <c r="C32" t="s">
         <v>7</v>
       </c>
@@ -1957,14 +2796,14 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="430" t="s">
+      <c r="A33" s="429" t="s">
         <v>7</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D33" t="s">
         <v>44</v>
@@ -1980,35 +2819,37 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="431" t="s">
-        <v>7</v>
+      <c r="A34" s="488" t="s">
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="G34" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="439"/>
+      <c r="A35" s="430" t="s">
+        <v>7</v>
+      </c>
       <c r="B35" t="s">
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D35" t="s">
         <v>44</v>
@@ -2024,58 +2865,58 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="432" t="s">
+      <c r="A36" s="431" t="s">
         <v>7</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F36" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="G36" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="442"/>
+      <c r="A37" s="439"/>
       <c r="B37" t="s">
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E37" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="433" t="s">
+      <c r="A38" s="432" t="s">
         <v>7</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D38" t="s">
         <v>44</v>
@@ -2091,91 +2932,174 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="434" t="s">
-        <v>7</v>
-      </c>
+      <c r="A39" s="442"/>
       <c r="B39" t="s">
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D39" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="129"/>
-      <c r="B40" s="130"/>
-      <c r="C40" s="131"/>
-      <c r="D40" s="132"/>
-      <c r="E40" s="133"/>
-      <c r="F40" s="134"/>
-      <c r="G40" s="135"/>
-      <c r="H40" s="136"/>
+      <c r="A40" s="496"/>
     </row>
     <row r="41">
-      <c r="A41" s="137"/>
-      <c r="B41" s="138" t="s">
+      <c r="A41" s="497"/>
+      <c r="B41" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="139" t="s">
+      <c r="C41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="500"/>
+      <c r="B42" t="s">
+        <v>113</v>
+      </c>
+      <c r="F42" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="498"/>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F43" t="s">
+        <v>105</v>
+      </c>
+      <c r="G43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="503"/>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="140" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" s="141" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="142" t="s">
-        <v>7</v>
-      </c>
-      <c r="G41" s="143" t="s">
-        <v>7</v>
-      </c>
-      <c r="H41" s="144"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="145"/>
-      <c r="B42" s="146" t="s">
+      <c r="D44" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44" t="s">
+        <v>115</v>
+      </c>
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="505"/>
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" t="s">
+        <v>116</v>
+      </c>
+      <c r="F45" t="s">
+        <v>105</v>
+      </c>
+      <c r="G45" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="504"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="499"/>
+      <c r="B47" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="147" t="s">
+      <c r="C47" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="145"/>
+      <c r="B48" s="146" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="147" t="s">
         <v>98</v>
       </c>
-      <c r="D42" s="148" t="s">
+      <c r="D48" s="148" t="s">
         <v>99</v>
       </c>
-      <c r="E42" s="149" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" s="150" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="151" t="s">
-        <v>7</v>
-      </c>
-      <c r="H42" s="152"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="153"/>
-      <c r="B43" s="154"/>
-      <c r="C43" s="155"/>
-      <c r="D43" s="156"/>
-      <c r="E43" s="157"/>
-      <c r="F43" s="158"/>
-      <c r="G43" s="159"/>
-      <c r="H43" s="160"/>
+      <c r="E48" s="149" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="150" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="151" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="152"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="153"/>
+      <c r="B49" s="154"/>
+      <c r="C49" s="155"/>
+      <c r="D49" s="156"/>
+      <c r="E49" s="157"/>
+      <c r="F49" s="158"/>
+      <c r="G49" s="159"/>
+      <c r="H49" s="160"/>
     </row>
   </sheetData>
 </worksheet>
@@ -2183,7 +3107,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H40"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="true"/>
@@ -2226,595 +3150,753 @@
       <c r="A2" s="466"/>
     </row>
     <row r="3">
-      <c r="A3" s="467"/>
+      <c r="A3" s="542"/>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="468" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" t="s">
-        <v>70</v>
-      </c>
+      <c r="A4" s="543"/>
     </row>
     <row r="5">
-      <c r="A5" s="469"/>
+      <c r="A5" s="545"/>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="470"/>
+      <c r="A6" s="547"/>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="471"/>
+      <c r="A7" s="546"/>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>113</v>
+      </c>
+      <c r="F7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="472" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" t="s">
-        <v>68</v>
-      </c>
+      <c r="A8" s="544"/>
     </row>
     <row r="9">
-      <c r="A9" s="473"/>
+      <c r="A9" s="467"/>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="474" t="s">
-        <v>52</v>
-      </c>
+      <c r="A10" s="533"/>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>124</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="475"/>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>82</v>
-      </c>
+      <c r="A11" s="539"/>
     </row>
     <row r="12">
-      <c r="A12" s="476"/>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="A12" s="400" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="401" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="402" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="403" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="404" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="405" t="s">
         <v>38</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="406" t="s">
         <v>77</v>
       </c>
+      <c r="H12" s="407"/>
     </row>
     <row r="13">
-      <c r="A13" s="477"/>
+      <c r="A13" s="532" t="s">
+        <v>7</v>
+      </c>
       <c r="B13" t="s">
         <v>24</v>
       </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="478"/>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" t="s">
-        <v>80</v>
-      </c>
+      <c r="A14" s="408"/>
+      <c r="B14" s="409"/>
+      <c r="C14" s="410"/>
+      <c r="D14" s="411"/>
+      <c r="E14" s="412"/>
+      <c r="F14" s="413"/>
+      <c r="G14" s="414"/>
+      <c r="H14" s="415"/>
     </row>
     <row r="15">
-      <c r="A15" s="479"/>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" t="s">
-        <v>80</v>
-      </c>
+      <c r="A15" s="416" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="417" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="418" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="419" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="420" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="421" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="422" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="423"/>
     </row>
     <row r="16">
-      <c r="A16" s="480" t="s">
-        <v>67</v>
+      <c r="A16" s="540" t="s">
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="481"/>
+      <c r="A17" s="507"/>
     </row>
     <row r="18">
-      <c r="A18" s="192"/>
-      <c r="B18" s="193" t="s">
+      <c r="A18" s="509"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="510"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="511"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="512"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="513"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="514"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="515"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="516"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="517"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="518"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="519"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="520"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="521"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="522"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="523"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="524"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="525"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="526"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="527"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="528"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="529"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="530"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="531"/>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H41"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" customWidth="true"/>
+    <col min="2" max="2" width="8.453125" customWidth="true"/>
+    <col min="3" max="3" width="12.453125" customWidth="true"/>
+    <col min="4" max="4" width="12.453125" customWidth="true"/>
+    <col min="5" max="5" width="12.453125" customWidth="true"/>
+    <col min="6" max="6" width="12.453125" customWidth="true"/>
+    <col min="7" max="7" width="12.453125" customWidth="true"/>
+    <col min="8" max="8" width="10.453125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="548" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="549" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="550" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="551" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="194" t="s">
+      <c r="E1" s="552" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="553" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="554" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="555" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="556"/>
+      <c r="B2" s="557"/>
+      <c r="C2" s="558"/>
+      <c r="D2" s="559"/>
+      <c r="E2" s="560"/>
+      <c r="F2" s="561"/>
+      <c r="G2" s="562"/>
+      <c r="H2" s="563"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="564" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="565" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="566" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="195" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="196"/>
-      <c r="F18" s="197"/>
-      <c r="G18" s="198"/>
-      <c r="H18" s="199"/>
+      <c r="D3" s="567" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="568" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="569" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="570" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" s="571"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="572"/>
+      <c r="B4" s="573"/>
+      <c r="C4" s="574"/>
+      <c r="D4" s="575"/>
+      <c r="E4" s="576"/>
+      <c r="F4" s="577"/>
+      <c r="G4" s="578"/>
+      <c r="H4" s="579"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="580"/>
+      <c r="B5" s="581"/>
+      <c r="C5" s="582"/>
+      <c r="D5" s="583"/>
+      <c r="E5" s="584"/>
+      <c r="F5" s="585"/>
+      <c r="G5" s="586"/>
+      <c r="H5" s="587"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="588"/>
+      <c r="B6" s="589"/>
+      <c r="C6" s="590"/>
+      <c r="D6" s="591"/>
+      <c r="E6" s="592"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="596"/>
+      <c r="B7" s="597"/>
+      <c r="C7" s="598"/>
+      <c r="D7" s="599"/>
+      <c r="E7" s="600"/>
+      <c r="F7" s="601"/>
+      <c r="G7" s="602"/>
+      <c r="H7" s="603"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="604"/>
+      <c r="B8" s="605"/>
+      <c r="C8" s="606"/>
+      <c r="D8" s="607"/>
+      <c r="E8" s="608"/>
+      <c r="F8" s="609"/>
+      <c r="G8" s="610"/>
+      <c r="H8" s="611"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="612"/>
+      <c r="B9" s="613"/>
+      <c r="C9" s="614"/>
+      <c r="D9" s="615"/>
+      <c r="E9" s="616"/>
+      <c r="F9" s="617"/>
+      <c r="G9" s="618"/>
+      <c r="H9" s="619"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="620"/>
+      <c r="B10" s="621"/>
+      <c r="C10" s="622"/>
+      <c r="D10" s="623"/>
+      <c r="E10" s="624"/>
+      <c r="F10" s="625"/>
+      <c r="G10" s="626"/>
+      <c r="H10" s="627"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="628"/>
+      <c r="B11" s="629"/>
+      <c r="C11" s="630"/>
+      <c r="D11" s="631"/>
+      <c r="E11" s="632"/>
+      <c r="F11" s="633"/>
+      <c r="G11" s="634"/>
+      <c r="H11" s="635"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="636"/>
+      <c r="B12" s="637"/>
+      <c r="C12" s="638"/>
+      <c r="D12" s="639"/>
+      <c r="E12" s="640"/>
+      <c r="F12" s="641"/>
+      <c r="G12" s="642"/>
+      <c r="H12" s="643"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="644"/>
+      <c r="B13" s="645"/>
+      <c r="C13" s="646"/>
+      <c r="D13" s="647"/>
+      <c r="E13" s="648"/>
+      <c r="F13" s="649"/>
+      <c r="G13" s="650"/>
+      <c r="H13" s="651"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="652"/>
+      <c r="B14" s="653"/>
+      <c r="C14" s="654"/>
+      <c r="D14" s="655"/>
+      <c r="E14" s="656"/>
+      <c r="F14" s="657"/>
+      <c r="G14" s="658"/>
+      <c r="H14" s="659"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="660"/>
+      <c r="B15" s="661"/>
+      <c r="C15" s="662"/>
+      <c r="D15" s="663"/>
+      <c r="E15" s="664"/>
+      <c r="F15" s="665"/>
+      <c r="G15" s="666"/>
+      <c r="H15" s="667"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="668"/>
+      <c r="B16" s="669"/>
+      <c r="C16" s="670"/>
+      <c r="D16" s="671"/>
+      <c r="E16" s="672"/>
+      <c r="F16" s="673"/>
+      <c r="G16" s="674"/>
+      <c r="H16" s="675"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="676"/>
+      <c r="B17" s="677"/>
+      <c r="C17" s="678"/>
+      <c r="D17" s="679"/>
+      <c r="E17" s="680"/>
+      <c r="F17" s="681"/>
+      <c r="G17" s="682"/>
+      <c r="H17" s="683"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="684"/>
+      <c r="B18" s="685"/>
+      <c r="C18" s="686"/>
+      <c r="D18" s="687"/>
+      <c r="E18" s="688"/>
+      <c r="F18" s="689"/>
+      <c r="G18" s="690"/>
+      <c r="H18" s="691"/>
     </row>
     <row r="19">
-      <c r="A19" s="200"/>
-      <c r="B19" s="201" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="202" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="203" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="204"/>
-      <c r="F19" s="205"/>
-      <c r="G19" s="206"/>
-      <c r="H19" s="207"/>
+      <c r="A19" s="692"/>
+      <c r="B19" s="693"/>
+      <c r="C19" s="694"/>
+      <c r="D19" s="695"/>
+      <c r="E19" s="696"/>
+      <c r="F19" s="697"/>
+      <c r="G19" s="698"/>
+      <c r="H19" s="699"/>
     </row>
     <row r="20">
-      <c r="A20" s="208"/>
-      <c r="B20" s="209" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="210" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="211" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="212" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="213" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="215"/>
+      <c r="A20" s="700"/>
+      <c r="B20" s="701"/>
+      <c r="C20" s="702"/>
+      <c r="D20" s="703"/>
+      <c r="E20" s="704"/>
+      <c r="F20" s="705"/>
+      <c r="G20" s="706"/>
+      <c r="H20" s="707"/>
     </row>
     <row r="21">
-      <c r="A21" s="216"/>
-      <c r="B21" s="217"/>
-      <c r="C21" s="218"/>
-      <c r="D21" s="219"/>
-      <c r="E21" s="220"/>
-      <c r="F21" s="221"/>
-      <c r="G21" s="222"/>
-      <c r="H21" s="223"/>
+      <c r="A21" s="708"/>
+      <c r="B21" s="709"/>
+      <c r="C21" s="710"/>
+      <c r="D21" s="711"/>
+      <c r="E21" s="712"/>
+      <c r="F21" s="713"/>
+      <c r="G21" s="714"/>
+      <c r="H21" s="715"/>
     </row>
     <row r="22">
-      <c r="A22" s="224"/>
-      <c r="B22" s="225" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="226" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="227" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="228" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="229" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="230" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="231"/>
+      <c r="A22" s="716"/>
+      <c r="B22" s="717"/>
+      <c r="C22" s="718"/>
+      <c r="D22" s="719"/>
+      <c r="E22" s="720"/>
+      <c r="F22" s="721"/>
+      <c r="G22" s="722"/>
+      <c r="H22" s="723"/>
     </row>
     <row r="23">
-      <c r="A23" s="232"/>
-      <c r="B23" s="233"/>
-      <c r="C23" s="234"/>
-      <c r="D23" s="235"/>
-      <c r="E23" s="236"/>
-      <c r="F23" s="237"/>
-      <c r="G23" s="238"/>
-      <c r="H23" s="239"/>
+      <c r="A23" s="724"/>
+      <c r="B23" s="725"/>
+      <c r="C23" s="726"/>
+      <c r="D23" s="727"/>
+      <c r="E23" s="728"/>
+      <c r="F23" s="729"/>
+      <c r="G23" s="730"/>
+      <c r="H23" s="731"/>
     </row>
     <row r="24">
-      <c r="A24" s="240"/>
-      <c r="B24" s="241" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="242" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="243" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="244" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="245" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="246" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="247"/>
+      <c r="A24" s="732"/>
+      <c r="B24" s="733"/>
+      <c r="C24" s="734"/>
+      <c r="D24" s="735"/>
+      <c r="E24" s="736"/>
+      <c r="F24" s="737"/>
+      <c r="G24" s="738"/>
+      <c r="H24" s="739"/>
     </row>
     <row r="25">
-      <c r="A25" s="248"/>
-      <c r="B25" s="249" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="250"/>
-      <c r="D25" s="251"/>
-      <c r="E25" s="252" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="253" t="s">
-        <v>70</v>
-      </c>
-      <c r="G25" s="254" t="s">
-        <v>50</v>
-      </c>
-      <c r="H25" s="255"/>
+      <c r="A25" s="740"/>
+      <c r="B25" s="741"/>
+      <c r="C25" s="742"/>
+      <c r="D25" s="743"/>
+      <c r="E25" s="744"/>
+      <c r="F25" s="745"/>
+      <c r="G25" s="746"/>
+      <c r="H25" s="747"/>
     </row>
     <row r="26">
-      <c r="A26" s="256"/>
-      <c r="B26" s="257"/>
-      <c r="C26" s="258"/>
-      <c r="D26" s="259"/>
-      <c r="E26" s="260"/>
-      <c r="F26" s="261"/>
-      <c r="G26" s="262"/>
-      <c r="H26" s="263"/>
+      <c r="A26" s="748"/>
+      <c r="B26" s="749"/>
+      <c r="C26" s="750"/>
+      <c r="D26" s="751"/>
+      <c r="E26" s="752"/>
+      <c r="F26" s="753"/>
+      <c r="G26" s="754"/>
+      <c r="H26" s="755"/>
     </row>
     <row r="27">
-      <c r="A27" s="264"/>
-      <c r="B27" s="265" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="266" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="267" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="268" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="269" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="270" t="s">
-        <v>30</v>
-      </c>
-      <c r="H27" s="271"/>
+      <c r="A27" s="756"/>
+      <c r="B27" s="757"/>
+      <c r="C27" s="758"/>
+      <c r="D27" s="759"/>
+      <c r="E27" s="760"/>
+      <c r="F27" s="761"/>
+      <c r="G27" s="762"/>
+      <c r="H27" s="763"/>
     </row>
     <row r="28">
-      <c r="A28" s="272"/>
-      <c r="B28" s="273" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="274"/>
-      <c r="D28" s="275"/>
-      <c r="E28" s="276" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="277" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="278" t="s">
-        <v>30</v>
-      </c>
-      <c r="H28" s="279"/>
+      <c r="A28" s="764"/>
+      <c r="B28" s="765"/>
+      <c r="C28" s="766"/>
+      <c r="D28" s="767"/>
+      <c r="E28" s="768"/>
+      <c r="F28" s="769"/>
+      <c r="G28" s="770"/>
+      <c r="H28" s="771"/>
     </row>
     <row r="29">
-      <c r="A29" s="280"/>
-      <c r="B29" s="281"/>
-      <c r="C29" s="282"/>
-      <c r="D29" s="283"/>
-      <c r="E29" s="284"/>
-      <c r="F29" s="285"/>
-      <c r="G29" s="286"/>
-      <c r="H29" s="287"/>
+      <c r="A29" s="772"/>
+      <c r="B29" s="773"/>
+      <c r="C29" s="774"/>
+      <c r="D29" s="775"/>
+      <c r="E29" s="776"/>
+      <c r="F29" s="777"/>
+      <c r="G29" s="778"/>
+      <c r="H29" s="779"/>
     </row>
     <row r="30">
-      <c r="A30" s="288"/>
-      <c r="B30" s="289" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="290" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="291" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="292" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="293" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="294" t="s">
-        <v>32</v>
-      </c>
-      <c r="H30" s="295"/>
+      <c r="A30" s="780"/>
+      <c r="B30" s="781"/>
+      <c r="C30" s="782"/>
+      <c r="D30" s="783"/>
+      <c r="E30" s="784"/>
+      <c r="F30" s="785"/>
+      <c r="G30" s="786"/>
+      <c r="H30" s="787"/>
     </row>
     <row r="31">
-      <c r="A31" s="296"/>
-      <c r="B31" s="297"/>
-      <c r="C31" s="298"/>
-      <c r="D31" s="299"/>
-      <c r="E31" s="300"/>
-      <c r="F31" s="301"/>
-      <c r="G31" s="302"/>
-      <c r="H31" s="303"/>
+      <c r="A31" s="788"/>
+      <c r="B31" s="789"/>
+      <c r="C31" s="790"/>
+      <c r="D31" s="791"/>
+      <c r="E31" s="792"/>
+      <c r="F31" s="793"/>
+      <c r="G31" s="794"/>
+      <c r="H31" s="795"/>
     </row>
     <row r="32">
-      <c r="A32" s="312"/>
-      <c r="B32" s="313" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="314" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="315" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="316" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="317" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="318" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" s="319"/>
+      <c r="A32" s="796"/>
+      <c r="B32" s="797"/>
+      <c r="C32" s="798"/>
+      <c r="D32" s="799"/>
+      <c r="E32" s="800"/>
+      <c r="F32" s="801"/>
+      <c r="G32" s="802"/>
+      <c r="H32" s="803"/>
     </row>
     <row r="33">
-      <c r="A33" s="320"/>
-      <c r="B33" s="321" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="322"/>
-      <c r="D33" s="323"/>
-      <c r="E33" s="324" t="s">
-        <v>25</v>
-      </c>
-      <c r="F33" s="325" t="s">
-        <v>70</v>
-      </c>
-      <c r="G33" s="326" t="s">
-        <v>51</v>
-      </c>
-      <c r="H33" s="327"/>
+      <c r="A33" s="804"/>
+      <c r="B33" s="805"/>
+      <c r="C33" s="806"/>
+      <c r="D33" s="807"/>
+      <c r="E33" s="808"/>
+      <c r="F33" s="809"/>
+      <c r="G33" s="810"/>
+      <c r="H33" s="811"/>
     </row>
     <row r="34">
-      <c r="A34" s="328"/>
-      <c r="B34" s="329"/>
-      <c r="C34" s="330"/>
-      <c r="D34" s="331"/>
-      <c r="E34" s="332"/>
-      <c r="F34" s="333"/>
-      <c r="G34" s="334"/>
-      <c r="H34" s="335"/>
+      <c r="A34" s="812"/>
+      <c r="B34" s="813"/>
+      <c r="C34" s="814"/>
+      <c r="D34" s="815"/>
+      <c r="E34" s="816"/>
+      <c r="F34" s="817"/>
+      <c r="G34" s="818"/>
+      <c r="H34" s="819"/>
     </row>
     <row r="35">
-      <c r="A35" s="336"/>
-      <c r="B35" s="337" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="338" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="339" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="340" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" s="341" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="342" t="s">
-        <v>33</v>
-      </c>
-      <c r="H35" s="343"/>
+      <c r="A35" s="820"/>
+      <c r="B35" s="821"/>
+      <c r="C35" s="822"/>
+      <c r="D35" s="823"/>
+      <c r="E35" s="824"/>
+      <c r="F35" s="825"/>
+      <c r="G35" s="826"/>
+      <c r="H35" s="827"/>
     </row>
     <row r="36">
-      <c r="A36" s="344"/>
-      <c r="B36" s="345"/>
-      <c r="C36" s="346"/>
-      <c r="D36" s="347"/>
-      <c r="E36" s="348"/>
-      <c r="F36" s="349"/>
-      <c r="G36" s="350"/>
-      <c r="H36" s="351"/>
+      <c r="A36" s="828"/>
+      <c r="B36" s="829"/>
+      <c r="C36" s="830"/>
+      <c r="D36" s="831"/>
+      <c r="E36" s="832"/>
+      <c r="F36" s="833"/>
+      <c r="G36" s="834"/>
+      <c r="H36" s="835"/>
     </row>
     <row r="37">
-      <c r="A37" s="352"/>
-      <c r="B37" s="353" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="354" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="355" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" s="356" t="s">
-        <v>37</v>
-      </c>
-      <c r="F37" s="357" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="358" t="s">
-        <v>40</v>
-      </c>
-      <c r="H37" s="359"/>
+      <c r="A37" s="836"/>
+      <c r="B37" s="837"/>
+      <c r="C37" s="838"/>
+      <c r="D37" s="839"/>
+      <c r="E37" s="840"/>
+      <c r="F37" s="841"/>
+      <c r="G37" s="842"/>
+      <c r="H37" s="843"/>
     </row>
     <row r="38">
-      <c r="A38" s="360"/>
-      <c r="B38" s="361"/>
-      <c r="C38" s="362"/>
-      <c r="D38" s="363"/>
-      <c r="E38" s="364"/>
-      <c r="F38" s="365"/>
-      <c r="G38" s="366"/>
-      <c r="H38" s="367"/>
+      <c r="A38" s="844"/>
+      <c r="B38" s="845"/>
+      <c r="C38" s="846"/>
+      <c r="D38" s="847"/>
+      <c r="E38" s="848"/>
+      <c r="F38" s="849"/>
+      <c r="G38" s="850"/>
+      <c r="H38" s="851"/>
     </row>
     <row r="39">
-      <c r="A39" s="368"/>
-      <c r="B39" s="369" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="370" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="371" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" s="372" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" s="373" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="374" t="s">
-        <v>34</v>
-      </c>
-      <c r="H39" s="375"/>
+      <c r="A39" s="852"/>
+      <c r="B39" s="853"/>
+      <c r="C39" s="854"/>
+      <c r="D39" s="855"/>
+      <c r="E39" s="856"/>
+      <c r="F39" s="857"/>
+      <c r="G39" s="858"/>
+      <c r="H39" s="859"/>
     </row>
     <row r="40">
-      <c r="A40" s="376"/>
-      <c r="B40" s="377" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="378" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="379" t="s">
-        <v>31</v>
-      </c>
-      <c r="E40" s="380" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" s="381" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="382" t="s">
-        <v>41</v>
-      </c>
-      <c r="H40" s="383"/>
+      <c r="A40" s="860"/>
+      <c r="B40" s="861"/>
+      <c r="C40" s="862"/>
+      <c r="D40" s="863"/>
+      <c r="E40" s="864"/>
+      <c r="F40" s="865"/>
+      <c r="G40" s="866"/>
+      <c r="H40" s="867"/>
     </row>
     <row r="41">
-      <c r="A41" s="384"/>
-      <c r="B41" s="385" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="386" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="387" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" s="388"/>
-      <c r="F41" s="389"/>
-      <c r="G41" s="390"/>
-      <c r="H41" s="391"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="392"/>
-      <c r="B42" s="393"/>
-      <c r="C42" s="394"/>
-      <c r="D42" s="395"/>
-      <c r="E42" s="396"/>
-      <c r="F42" s="397"/>
-      <c r="G42" s="398"/>
-      <c r="H42" s="399"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="400"/>
-      <c r="B43" s="401"/>
-      <c r="C43" s="402"/>
-      <c r="D43" s="403"/>
-      <c r="E43" s="404"/>
-      <c r="F43" s="405"/>
-      <c r="G43" s="406"/>
-      <c r="H43" s="407"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="408"/>
-      <c r="B44" s="409"/>
-      <c r="C44" s="410"/>
-      <c r="D44" s="411"/>
-      <c r="E44" s="412"/>
-      <c r="F44" s="413"/>
-      <c r="G44" s="414"/>
-      <c r="H44" s="415"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="416"/>
-      <c r="B45" s="417"/>
-      <c r="C45" s="418"/>
-      <c r="D45" s="419"/>
-      <c r="E45" s="420"/>
-      <c r="F45" s="421"/>
-      <c r="G45" s="422"/>
-      <c r="H45" s="423"/>
+      <c r="A41" s="868"/>
+      <c r="B41" s="869"/>
+      <c r="C41" s="870"/>
+      <c r="D41" s="871"/>
+      <c r="E41" s="872"/>
+      <c r="F41" s="873"/>
+      <c r="G41" s="874"/>
+      <c r="H41" s="875"/>
     </row>
   </sheetData>
 </worksheet>

--- a/TC_CreateNewCustomer/Main.rvl.xlsx
+++ b/TC_CreateNewCustomer/Main.rvl.xlsx
@@ -9,13 +9,14 @@
     <sheet name="RVL" sheetId="1" r:id="rId2"/>
     <sheet name="Cleanup" sheetId="2" r:id="rId4"/>
     <sheet name="Menu" sheetId="3" r:id="rId5"/>
+    <sheet name="Manual" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="134">
   <si>
     <t>Flow</t>
   </si>
@@ -437,7 +438,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="878">
+  <borders count="1209">
     <border>
       <left/>
       <right/>
@@ -1322,11 +1323,342 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="878">
+  <cellXfs count="1209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -2205,6 +2537,337 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="875" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="876" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="877" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="878" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="879" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="880" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="881" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="882" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="883" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="884" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="885" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="886" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="887" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="888" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="889" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="890" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="891" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="892" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="893" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="894" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="895" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="896" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="897" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="898" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="899" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="900" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="901" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="902" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="903" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="904" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="905" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="906" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="907" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="908" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="909" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="910" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="911" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="912" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="913" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="914" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="915" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="916" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="917" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="918" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="919" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="920" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="921" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="922" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="923" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="924" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="925" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="926" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="927" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="928" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="929" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="930" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="931" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="932" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="933" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="934" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="935" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="936" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="937" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="938" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="939" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="940" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="941" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="942" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="943" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="944" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="945" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="946" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="947" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="948" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="949" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="950" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="951" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="952" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="953" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="954" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="955" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="956" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="957" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="958" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="959" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="960" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="961" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="962" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="963" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="964" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="965" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="966" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="967" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="968" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="969" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="970" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="971" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="972" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="973" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="974" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="975" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="976" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="977" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="978" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="979" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="980" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="981" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="982" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="983" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="984" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="985" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="986" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="987" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="988" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="989" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="990" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="991" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="992" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="993" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="994" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="995" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="996" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="997" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="998" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="999" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1000" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1001" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1002" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1003" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1004" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1005" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1006" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1007" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1008" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1009" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1010" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1011" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1012" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1013" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1014" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1015" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1016" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1017" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1018" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1019" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1020" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1021" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1022" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1023" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1024" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1025" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1026" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1027" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1028" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1029" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1030" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1031" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1032" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1033" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1034" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1035" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1036" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1037" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1038" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1039" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1040" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1041" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1042" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1043" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1044" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1045" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1046" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1047" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1048" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1049" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1050" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1051" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1052" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1053" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1054" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1055" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1056" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1057" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1058" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1059" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1060" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1061" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1062" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1063" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1064" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1065" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1066" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1067" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1068" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1069" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1070" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1071" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1072" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1073" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1074" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1075" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1076" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1077" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1078" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1079" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1080" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1081" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1082" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1083" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1084" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1085" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1086" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1087" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1088" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1089" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1090" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1091" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1092" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1093" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1094" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1095" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1096" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1097" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1098" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1099" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1100" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1101" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1102" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1103" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1104" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1105" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1106" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1107" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1108" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1109" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1110" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1111" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1112" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1113" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1114" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1115" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1116" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1117" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1118" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1119" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1120" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1121" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1122" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1123" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1124" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1125" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1126" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1127" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1128" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1129" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1130" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1131" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1132" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1133" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1134" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1135" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1136" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1137" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1138" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1139" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1140" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1141" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1142" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1143" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1144" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1145" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1146" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1147" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1148" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1149" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1150" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1151" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1152" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1153" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1154" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1155" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1156" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1157" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1158" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1159" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1160" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1161" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1162" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1163" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1164" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1165" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1166" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1167" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1168" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1169" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1170" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1171" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1172" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1173" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1174" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1175" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1176" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1177" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1178" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1179" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1180" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1181" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1182" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1183" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1184" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1185" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1186" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1187" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1188" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1189" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1190" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1191" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1192" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1193" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1194" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1195" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1196" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1197" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1198" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1199" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1200" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1201" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1202" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1203" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1204" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1205" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1206" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1207" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1208" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3900,4 +4563,682 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H42"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" customWidth="true"/>
+    <col min="2" max="2" width="8.453125" customWidth="true"/>
+    <col min="3" max="3" width="12.453125" customWidth="true"/>
+    <col min="4" max="4" width="12.453125" customWidth="true"/>
+    <col min="5" max="5" width="12.453125" customWidth="true"/>
+    <col min="6" max="6" width="12.453125" customWidth="true"/>
+    <col min="7" max="7" width="12.453125" customWidth="true"/>
+    <col min="8" max="8" width="10.453125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="878" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="879" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="880" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="881" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="882" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="883" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="884" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="885" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="886"/>
+      <c r="B2" s="887"/>
+      <c r="C2" s="888"/>
+      <c r="D2" s="889"/>
+      <c r="E2" s="890"/>
+      <c r="F2" s="891"/>
+      <c r="G2" s="892"/>
+      <c r="H2" s="893"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1206" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1207"/>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="894"/>
+      <c r="B5" s="895" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="896"/>
+      <c r="D5" s="897"/>
+      <c r="E5" s="898"/>
+      <c r="F5" s="899"/>
+      <c r="G5" s="900"/>
+      <c r="H5" s="901"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="902"/>
+      <c r="B6" s="903" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="904"/>
+      <c r="D6" s="905"/>
+      <c r="E6" s="906"/>
+      <c r="F6" s="907"/>
+      <c r="G6" s="908"/>
+      <c r="H6" s="909"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="910" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="911" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="912"/>
+      <c r="D7" s="913"/>
+      <c r="E7" s="914"/>
+      <c r="F7" s="915"/>
+      <c r="G7" s="916"/>
+      <c r="H7" s="917"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="918"/>
+      <c r="B8" s="919"/>
+      <c r="C8" s="920"/>
+      <c r="D8" s="921"/>
+      <c r="E8" s="922"/>
+      <c r="F8" s="923"/>
+      <c r="G8" s="924"/>
+      <c r="H8" s="925"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="926" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="927" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="928" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="929"/>
+      <c r="E9" s="930" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="931" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="932" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="933"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="934"/>
+      <c r="B10" s="935" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="936"/>
+      <c r="D10" s="937"/>
+      <c r="E10" s="938" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="939" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="940" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="941"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="942"/>
+      <c r="B11" s="943" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="944"/>
+      <c r="D11" s="945"/>
+      <c r="E11" s="946" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="947" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="948" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="949"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="950"/>
+      <c r="B12" s="951" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="952"/>
+      <c r="D12" s="953"/>
+      <c r="E12" s="954" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="955" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="956" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="957"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="958"/>
+      <c r="B13" s="959" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="960"/>
+      <c r="D13" s="961"/>
+      <c r="E13" s="962" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="963" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="964" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="965"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="966"/>
+      <c r="B14" s="967" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="968"/>
+      <c r="D14" s="969"/>
+      <c r="E14" s="970" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="971" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="972" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="973"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="974" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="975" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="976"/>
+      <c r="D15" s="977"/>
+      <c r="E15" s="978"/>
+      <c r="F15" s="979"/>
+      <c r="G15" s="980"/>
+      <c r="H15" s="981"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="982"/>
+      <c r="B16" s="983"/>
+      <c r="C16" s="984"/>
+      <c r="D16" s="985"/>
+      <c r="E16" s="986"/>
+      <c r="F16" s="987"/>
+      <c r="G16" s="988"/>
+      <c r="H16" s="989"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="998"/>
+      <c r="B17" s="999" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1000" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1001" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1002"/>
+      <c r="F17" s="1003"/>
+      <c r="G17" s="1004"/>
+      <c r="H17" s="1005"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1006"/>
+      <c r="B18" s="1007" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1008" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1009" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1010"/>
+      <c r="F18" s="1011"/>
+      <c r="G18" s="1012"/>
+      <c r="H18" s="1013"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1014"/>
+      <c r="B19" s="1015" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1016" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1017" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="1018" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="1019" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="1020" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="1021"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1022"/>
+      <c r="B20" s="1023"/>
+      <c r="C20" s="1024"/>
+      <c r="D20" s="1025"/>
+      <c r="E20" s="1026"/>
+      <c r="F20" s="1027"/>
+      <c r="G20" s="1028"/>
+      <c r="H20" s="1029"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1030"/>
+      <c r="B21" s="1031" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1032" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1033" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="1034" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="1035" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="1036" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="1037"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1038"/>
+      <c r="B22" s="1039"/>
+      <c r="C22" s="1040"/>
+      <c r="D22" s="1041"/>
+      <c r="E22" s="1042"/>
+      <c r="F22" s="1043"/>
+      <c r="G22" s="1044"/>
+      <c r="H22" s="1045"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1046"/>
+      <c r="B23" s="1047" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1048" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1049" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="1050" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="1051" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="1052" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="1053"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1054"/>
+      <c r="B24" s="1055" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1056"/>
+      <c r="D24" s="1057"/>
+      <c r="E24" s="1058" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="1059" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="1060" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="1061"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1062"/>
+      <c r="B25" s="1063"/>
+      <c r="C25" s="1064"/>
+      <c r="D25" s="1065"/>
+      <c r="E25" s="1066"/>
+      <c r="F25" s="1067"/>
+      <c r="G25" s="1068"/>
+      <c r="H25" s="1069"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1070"/>
+      <c r="B26" s="1071" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1072" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1073" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="1074" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="1075" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="1076" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="1077"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1078"/>
+      <c r="B27" s="1079" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1080"/>
+      <c r="D27" s="1081"/>
+      <c r="E27" s="1082" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="1083" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="1084" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="1085"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1086"/>
+      <c r="B28" s="1087"/>
+      <c r="C28" s="1088"/>
+      <c r="D28" s="1089"/>
+      <c r="E28" s="1090"/>
+      <c r="F28" s="1091"/>
+      <c r="G28" s="1092"/>
+      <c r="H28" s="1093"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1094"/>
+      <c r="B29" s="1095" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1096" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1097" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="1098" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="1099" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="1100" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="1101"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1102"/>
+      <c r="B30" s="1103"/>
+      <c r="C30" s="1104"/>
+      <c r="D30" s="1105"/>
+      <c r="E30" s="1106"/>
+      <c r="F30" s="1107"/>
+      <c r="G30" s="1108"/>
+      <c r="H30" s="1109"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1110"/>
+      <c r="B31" s="1111" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1112" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1113" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="1114" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="1115" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="1116" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="1117"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1118"/>
+      <c r="B32" s="1119" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="1120"/>
+      <c r="D32" s="1121"/>
+      <c r="E32" s="1122" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="1123" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="1124" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" s="1125"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1126"/>
+      <c r="B33" s="1127"/>
+      <c r="C33" s="1128"/>
+      <c r="D33" s="1129"/>
+      <c r="E33" s="1130"/>
+      <c r="F33" s="1131"/>
+      <c r="G33" s="1132"/>
+      <c r="H33" s="1133"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1134"/>
+      <c r="B34" s="1135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1136" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1137" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="1138" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="1139" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="1140" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="1141"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1142"/>
+      <c r="B35" s="1143"/>
+      <c r="C35" s="1144"/>
+      <c r="D35" s="1145"/>
+      <c r="E35" s="1146"/>
+      <c r="F35" s="1147"/>
+      <c r="G35" s="1148"/>
+      <c r="H35" s="1149"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1150"/>
+      <c r="B36" s="1151" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1152" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="1153" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="1154" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="1155" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="1156" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" s="1157"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1158"/>
+      <c r="B37" s="1159"/>
+      <c r="C37" s="1160"/>
+      <c r="D37" s="1161"/>
+      <c r="E37" s="1162"/>
+      <c r="F37" s="1163"/>
+      <c r="G37" s="1164"/>
+      <c r="H37" s="1165"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1166"/>
+      <c r="B38" s="1167" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1168" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1169" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="1170" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="1171" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="1172" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" s="1173"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1174"/>
+      <c r="B39" s="1175" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1176" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="1177" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="1178" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="1179" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="1180" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" s="1181"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1182"/>
+      <c r="B40" s="1183" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1184" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="1185" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="1186"/>
+      <c r="F40" s="1187"/>
+      <c r="G40" s="1188"/>
+      <c r="H40" s="1189"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1190"/>
+      <c r="B41" s="1191"/>
+      <c r="C41" s="1192"/>
+      <c r="D41" s="1193"/>
+      <c r="E41" s="1194"/>
+      <c r="F41" s="1195"/>
+      <c r="G41" s="1196"/>
+      <c r="H41" s="1197"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1198"/>
+      <c r="B42" s="1199"/>
+      <c r="C42" s="1200"/>
+      <c r="D42" s="1201"/>
+      <c r="E42" s="1202"/>
+      <c r="F42" s="1203"/>
+      <c r="G42" s="1204"/>
+      <c r="H42" s="1205"/>
+    </row>
+  </sheetData>
+</worksheet>
 </file>
--- a/TC_CreateNewCustomer/Main.rvl.xlsx
+++ b/TC_CreateNewCustomer/Main.rvl.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="135">
   <si>
     <t>Flow</t>
   </si>
@@ -418,6 +418,9 @@
   </si>
   <si>
     <t>Modules;Accounts payable;Vendors;All vendors</t>
+  </si>
+  <si>
+    <t>60000</t>
   </si>
 </sst>
 </file>
@@ -438,7 +441,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1209">
+  <borders count="1219">
     <border>
       <left/>
       <right/>
@@ -1654,11 +1657,21 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1209">
+  <cellXfs count="1219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -2868,6 +2881,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1206" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1207" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1208" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1209" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1210" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1211" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1212" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1213" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1214" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1215" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1216" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1217" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1218" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2877,7 +2900,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H53"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="true"/>
@@ -3262,260 +3285,230 @@
       <c r="H23" s="56"/>
     </row>
     <row r="24">
-      <c r="A24" s="425" t="s">
-        <v>7</v>
-      </c>
+      <c r="A24" s="1209"/>
       <c r="B24" t="s">
         <v>3</v>
       </c>
       <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" t="s">
         <v>50</v>
       </c>
-      <c r="D24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="25">
-      <c r="A25" s="426" t="s">
-        <v>7</v>
-      </c>
+      <c r="A25" s="1214"/>
       <c r="B25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="F25" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s">
-        <v>50</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="427" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" t="s">
-        <v>7</v>
-      </c>
+      <c r="A26" s="1212"/>
     </row>
     <row r="27">
-      <c r="A27" s="428" t="s">
+      <c r="A27" s="425" t="s">
         <v>7</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="437"/>
+      <c r="A28" s="426" t="s">
+        <v>7</v>
+      </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F28" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="G28" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="489" t="s">
-        <v>84</v>
+      <c r="A29" s="427" t="s">
+        <v>7</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
       </c>
       <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="428" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="437"/>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="489" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
         <v>35</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D32" t="s">
         <v>92</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E32" t="s">
         <v>93</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F32" t="s">
         <v>94</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G32" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="493"/>
-      <c r="B30" t="s">
+    <row r="33">
+      <c r="A33" s="493"/>
+      <c r="B33" t="s">
         <v>24</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E33" t="s">
         <v>95</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F33" t="s">
         <v>38</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G33" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="490" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="34">
+      <c r="A34" s="490" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
         <v>87</v>
       </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
         <v>91</v>
       </c>
-      <c r="E31" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="492" t="s">
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="492" t="s">
         <v>18</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B35" t="s">
         <v>90</v>
       </c>
-      <c r="C32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="429" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="488" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="430" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" t="s">
-        <v>3</v>
-      </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="E35" t="s">
         <v>7</v>
@@ -3528,61 +3521,61 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="431" t="s">
+      <c r="A36" s="429" t="s">
         <v>7</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E36" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="439"/>
+      <c r="A37" s="1218"/>
       <c r="B37" t="s">
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="F37" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="432" t="s">
-        <v>7</v>
+      <c r="A38" s="488" t="s">
+        <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="E38" t="s">
         <v>7</v>
@@ -3595,39 +3588,61 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="442"/>
+      <c r="A39" s="430" t="s">
+        <v>7</v>
+      </c>
       <c r="B39" t="s">
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D39" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E39" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="496"/>
+      <c r="A40" s="431" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="497"/>
+      <c r="A41" s="439"/>
       <c r="B41" t="s">
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="D41" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="E41" t="s">
         <v>7</v>
@@ -3640,129 +3655,197 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="500"/>
+      <c r="A42" s="432" t="s">
+        <v>7</v>
+      </c>
       <c r="B42" t="s">
-        <v>113</v>
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="G42" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="498"/>
+      <c r="A43" s="442"/>
       <c r="B43" t="s">
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="D43" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="E43" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="496"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="497"/>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" t="s">
+        <v>109</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="500"/>
+      <c r="B46" t="s">
+        <v>113</v>
+      </c>
+      <c r="F46" t="s">
         <v>105</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G46" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="503"/>
-      <c r="B44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" t="s">
-        <v>114</v>
-      </c>
-      <c r="E44" t="s">
-        <v>115</v>
-      </c>
-      <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="505"/>
-      <c r="B45" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" t="s">
-        <v>116</v>
-      </c>
-      <c r="F45" t="s">
-        <v>105</v>
-      </c>
-      <c r="G45" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="504"/>
-    </row>
     <row r="47">
-      <c r="A47" s="499"/>
+      <c r="A47" s="498"/>
       <c r="B47" t="s">
         <v>3</v>
       </c>
       <c r="C47" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" t="s">
+        <v>104</v>
+      </c>
+      <c r="F47" t="s">
+        <v>105</v>
+      </c>
+      <c r="G47" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="503"/>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>114</v>
+      </c>
+      <c r="E48" t="s">
+        <v>115</v>
+      </c>
+      <c r="F48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="505"/>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" t="s">
+        <v>116</v>
+      </c>
+      <c r="F49" t="s">
+        <v>105</v>
+      </c>
+      <c r="G49" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="504"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="499"/>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
         <v>127</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D51" t="s">
         <v>128</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E51" t="s">
         <v>74</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F51" t="s">
         <v>13</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G51" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="145"/>
-      <c r="B48" s="146" t="s">
+    <row r="52">
+      <c r="A52" s="145"/>
+      <c r="B52" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="147" t="s">
+      <c r="C52" s="147" t="s">
         <v>98</v>
       </c>
-      <c r="D48" s="148" t="s">
+      <c r="D52" s="148" t="s">
         <v>99</v>
       </c>
-      <c r="E48" s="149" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" s="150" t="s">
-        <v>7</v>
-      </c>
-      <c r="G48" s="151" t="s">
-        <v>7</v>
-      </c>
-      <c r="H48" s="152"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="153"/>
-      <c r="B49" s="154"/>
-      <c r="C49" s="155"/>
-      <c r="D49" s="156"/>
-      <c r="E49" s="157"/>
-      <c r="F49" s="158"/>
-      <c r="G49" s="159"/>
-      <c r="H49" s="160"/>
+      <c r="E52" s="149" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="150" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="151" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="152"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="153"/>
+      <c r="B53" s="154"/>
+      <c r="C53" s="155"/>
+      <c r="D53" s="156"/>
+      <c r="E53" s="157"/>
+      <c r="F53" s="158"/>
+      <c r="G53" s="159"/>
+      <c r="H53" s="160"/>
     </row>
   </sheetData>
 </worksheet>
@@ -4032,6 +4115,24 @@
     </row>
     <row r="17">
       <c r="A17" s="507"/>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="509"/>

--- a/TC_CreateNewCustomer/Main.rvl.xlsx
+++ b/TC_CreateNewCustomer/Main.rvl.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="145">
   <si>
     <t>Flow</t>
   </si>
@@ -421,6 +421,36 @@
   </si>
   <si>
     <t>60000</t>
+  </si>
+  <si>
+    <t>DFO</t>
+  </si>
+  <si>
+    <t>Launch</t>
+  </si>
+  <si>
+    <t>PassWelcomeScreen</t>
+  </si>
+  <si>
+    <t>SearchPage</t>
+  </si>
+  <si>
+    <t>SearchRecords</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>ClickButton</t>
+  </si>
+  <si>
+    <t>SetFieldText</t>
+  </si>
+  <si>
+    <t>ClickFormButton</t>
+  </si>
+  <si>
+    <t>Wait</t>
   </si>
 </sst>
 </file>
@@ -441,7 +471,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1219">
+  <borders count="1232">
     <border>
       <left/>
       <right/>
@@ -1667,11 +1697,24 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1219">
+  <cellXfs count="1232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -2891,6 +2934,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1216" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1217" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1218" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1219" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1220" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1221" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1222" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1223" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1224" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1225" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1226" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1227" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1228" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1229" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1230" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1231" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3106,225 +3162,239 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="460"/>
+      <c r="A13" s="457" t="s">
+        <v>67</v>
+      </c>
       <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="447"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="25"/>
+      <c r="B16" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="32"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="33"/>
+      <c r="B17" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="40"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1219"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="435"/>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1220"/>
+      <c r="B20" t="s">
         <v>24</v>
       </c>
-      <c r="E13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" t="s">
         <v>38</v>
       </c>
-      <c r="G13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="461"/>
-      <c r="B14" t="s">
+      <c r="G20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1221"/>
+      <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="E14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" t="s">
         <v>38</v>
       </c>
-      <c r="G14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="462"/>
-      <c r="B15" t="s">
+      <c r="G21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="56"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1209"/>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1214"/>
+      <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="E15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" t="s">
         <v>38</v>
       </c>
-      <c r="G15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="463"/>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="457" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="447"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18" t="s">
+      <c r="G24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1212"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="425" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="24"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="32"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="40"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="435"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="52" t="s">
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="56"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1209"/>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" t="s">
-        <v>92</v>
-      </c>
-      <c r="E24" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" t="s">
-        <v>94</v>
-      </c>
-      <c r="G24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1214"/>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1212"/>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="425" t="s">
+      <c r="A27" s="426" t="s">
         <v>7</v>
       </c>
       <c r="B27" t="s">
@@ -3334,43 +3404,43 @@
         <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="G27" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="426" t="s">
+      <c r="A28" s="427" t="s">
         <v>7</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="G28" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="427" t="s">
+      <c r="A29" s="428" t="s">
         <v>7</v>
       </c>
       <c r="B29" t="s">
@@ -3380,136 +3450,136 @@
         <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F29" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="G29" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="428" t="s">
-        <v>7</v>
-      </c>
+      <c r="A30" s="437"/>
       <c r="B30" t="s">
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="437"/>
+      <c r="A31" s="489" t="s">
+        <v>84</v>
+      </c>
       <c r="B31" t="s">
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" t="s">
+        <v>94</v>
+      </c>
+      <c r="G31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="493"/>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="490" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="492" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="429" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" t="s">
         <v>44</v>
       </c>
-      <c r="E31" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="489" t="s">
-        <v>84</v>
-      </c>
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" t="s">
-        <v>92</v>
-      </c>
-      <c r="E32" t="s">
-        <v>93</v>
-      </c>
-      <c r="F32" t="s">
-        <v>94</v>
-      </c>
-      <c r="G32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="493"/>
-      <c r="B33" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" t="s">
-        <v>95</v>
-      </c>
-      <c r="F33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="490" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="492" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
       <c r="E35" t="s">
         <v>7</v>
       </c>
@@ -3521,62 +3591,62 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="429" t="s">
-        <v>7</v>
-      </c>
+      <c r="A36" s="1218"/>
       <c r="B36" t="s">
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="488" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="430" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" t="s">
         <v>44</v>
       </c>
-      <c r="E36" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1218"/>
-      <c r="B37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" t="s">
-        <v>37</v>
-      </c>
-      <c r="F37" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="488" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
       <c r="E38" t="s">
         <v>7</v>
       </c>
@@ -3588,7 +3658,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="430" t="s">
+      <c r="A39" s="431" t="s">
         <v>7</v>
       </c>
       <c r="B39" t="s">
@@ -3598,48 +3668,48 @@
         <v>51</v>
       </c>
       <c r="D39" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F39" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="G39" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="431" t="s">
-        <v>7</v>
-      </c>
+      <c r="A40" s="439"/>
       <c r="B40" t="s">
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E40" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="G40" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="439"/>
+      <c r="A41" s="432" t="s">
+        <v>7</v>
+      </c>
       <c r="B41" t="s">
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D41" t="s">
         <v>44</v>
@@ -3655,98 +3725,84 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="432" t="s">
-        <v>7</v>
-      </c>
+      <c r="A42" s="442"/>
       <c r="B42" t="s">
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="E42" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="F42" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="G42" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="442"/>
+      <c r="A43" s="1229"/>
       <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" t="s">
+        <v>95</v>
+      </c>
+      <c r="F43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1230"/>
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" t="s">
+        <v>97</v>
+      </c>
+      <c r="F44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="496"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="497"/>
+      <c r="B46" t="s">
         <v>3</v>
       </c>
-      <c r="C43" t="s">
-        <v>35</v>
-      </c>
-      <c r="D43" t="s">
-        <v>92</v>
-      </c>
-      <c r="E43" t="s">
-        <v>93</v>
-      </c>
-      <c r="F43" t="s">
-        <v>94</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="C46" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="496"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="497"/>
-      <c r="B45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" t="s">
-        <v>108</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>109</v>
       </c>
-      <c r="E45" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="500"/>
-      <c r="B46" t="s">
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="500"/>
+      <c r="B47" t="s">
         <v>113</v>
-      </c>
-      <c r="F46" t="s">
-        <v>105</v>
-      </c>
-      <c r="G46" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="498"/>
-      <c r="B47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" t="s">
-        <v>102</v>
-      </c>
-      <c r="D47" t="s">
-        <v>103</v>
-      </c>
-      <c r="E47" t="s">
-        <v>104</v>
       </c>
       <c r="F47" t="s">
         <v>105</v>
@@ -3756,86 +3812,85 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="503"/>
+      <c r="A48" s="498"/>
       <c r="B48" t="s">
         <v>3</v>
       </c>
       <c r="C48" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48" t="s">
+        <v>104</v>
+      </c>
+      <c r="F48" t="s">
+        <v>105</v>
+      </c>
+      <c r="G48" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="503"/>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
         <v>8</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" t="s">
         <v>114</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E49" t="s">
         <v>115</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F49" t="s">
         <v>13</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G49" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="505"/>
-      <c r="B49" t="s">
+    <row r="50">
+      <c r="A50" s="505"/>
+      <c r="B50" t="s">
         <v>24</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E50" t="s">
         <v>116</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F50" t="s">
         <v>105</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G50" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="504"/>
-    </row>
     <row r="51">
-      <c r="A51" s="499"/>
-      <c r="B51" t="s">
+      <c r="A51" s="504"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="499"/>
+      <c r="B52" t="s">
         <v>3</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>127</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
         <v>128</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E52" t="s">
         <v>74</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F52" t="s">
         <v>13</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G52" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="145"/>
-      <c r="B52" s="146" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="147" t="s">
-        <v>98</v>
-      </c>
-      <c r="D52" s="148" t="s">
-        <v>99</v>
-      </c>
-      <c r="E52" s="149" t="s">
-        <v>7</v>
-      </c>
-      <c r="F52" s="150" t="s">
-        <v>7</v>
-      </c>
-      <c r="G52" s="151" t="s">
-        <v>7</v>
-      </c>
-      <c r="H52" s="152"/>
     </row>
     <row r="53">
       <c r="A53" s="153"/>
@@ -3853,7 +3908,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H43"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="true"/>
@@ -3970,10 +4025,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -3991,10 +4046,10 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E10" t="s">
         <v>116</v>
@@ -4091,117 +4146,168 @@
       <c r="H15" s="423"/>
     </row>
     <row r="16">
-      <c r="A16" s="540" t="s">
-        <v>7</v>
-      </c>
+      <c r="A16" s="1226"/>
       <c r="B16" t="s">
         <v>3</v>
       </c>
       <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" t="s">
         <v>41</v>
       </c>
-      <c r="D16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="17">
-      <c r="A17" s="507"/>
+      <c r="A17" s="1227"/>
       <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="F17" t="s">
         <v>38</v>
       </c>
       <c r="G17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1228"/>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="540" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="507"/>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="509"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="510"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="511"/>
-    </row>
     <row r="21">
-      <c r="A21" s="512"/>
+      <c r="A21" s="509"/>
     </row>
     <row r="22">
-      <c r="A22" s="513"/>
+      <c r="A22" s="510"/>
     </row>
     <row r="23">
-      <c r="A23" s="514"/>
+      <c r="A23" s="511"/>
     </row>
     <row r="24">
-      <c r="A24" s="515"/>
+      <c r="A24" s="512"/>
     </row>
     <row r="25">
-      <c r="A25" s="516"/>
+      <c r="A25" s="513"/>
     </row>
     <row r="26">
-      <c r="A26" s="517"/>
+      <c r="A26" s="514"/>
     </row>
     <row r="27">
-      <c r="A27" s="518"/>
+      <c r="A27" s="515"/>
     </row>
     <row r="28">
-      <c r="A28" s="519"/>
+      <c r="A28" s="516"/>
     </row>
     <row r="29">
-      <c r="A29" s="520"/>
+      <c r="A29" s="517"/>
     </row>
     <row r="30">
-      <c r="A30" s="521"/>
+      <c r="A30" s="518"/>
     </row>
     <row r="31">
-      <c r="A31" s="522"/>
+      <c r="A31" s="519"/>
     </row>
     <row r="32">
-      <c r="A32" s="523"/>
+      <c r="A32" s="520"/>
     </row>
     <row r="33">
-      <c r="A33" s="524"/>
+      <c r="A33" s="521"/>
     </row>
     <row r="34">
-      <c r="A34" s="525"/>
+      <c r="A34" s="522"/>
     </row>
     <row r="35">
-      <c r="A35" s="526"/>
+      <c r="A35" s="523"/>
     </row>
     <row r="36">
-      <c r="A36" s="527"/>
+      <c r="A36" s="524"/>
     </row>
     <row r="37">
-      <c r="A37" s="528"/>
+      <c r="A37" s="525"/>
     </row>
     <row r="38">
-      <c r="A38" s="529"/>
+      <c r="A38" s="526"/>
     </row>
     <row r="39">
-      <c r="A39" s="530"/>
+      <c r="A39" s="527"/>
     </row>
     <row r="40">
-      <c r="A40" s="531"/>
+      <c r="A40" s="528"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="529"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="530"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="531"/>
     </row>
   </sheetData>
 </worksheet>
@@ -4266,10 +4372,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="566" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="D3" s="567" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="E3" s="568" t="s">
         <v>16</v>
@@ -4924,14 +5030,20 @@
         <v>3</v>
       </c>
       <c r="C17" s="1000" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="D17" s="1001" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="1002"/>
-      <c r="F17" s="1003"/>
-      <c r="G17" s="1004"/>
+        <v>136</v>
+      </c>
+      <c r="E17" s="1002" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1003" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="1004" t="s">
+        <v>7</v>
+      </c>
       <c r="H17" s="1005"/>
     </row>
     <row r="18">
@@ -4940,14 +5052,20 @@
         <v>3</v>
       </c>
       <c r="C18" s="1008" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="D18" s="1009" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="1010"/>
-      <c r="F18" s="1011"/>
-      <c r="G18" s="1012"/>
+        <v>137</v>
+      </c>
+      <c r="E18" s="1010" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="1011" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="1012" t="s">
+        <v>7</v>
+      </c>
       <c r="H18" s="1013"/>
     </row>
     <row r="19">
@@ -4956,10 +5074,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="1016" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="D19" s="1017" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="E19" s="1018" t="s">
         <v>12</v>
@@ -4988,10 +5106,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="1032" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="D21" s="1033" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="E21" s="1034" t="s">
         <v>20</v>
@@ -5020,10 +5138,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="1048" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="D23" s="1049" t="s">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="E23" s="1050" t="s">
         <v>23</v>
@@ -5037,22 +5155,19 @@
       <c r="H23" s="1053"/>
     </row>
     <row r="24">
-      <c r="A24" s="1054"/>
-      <c r="B24" s="1055" t="s">
+      <c r="A24" s="1223"/>
+      <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="1056"/>
-      <c r="D24" s="1057"/>
-      <c r="E24" s="1058" t="s">
+      <c r="E24" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="1059" t="s">
+      <c r="F24" t="s">
         <v>70</v>
       </c>
-      <c r="G24" s="1060" t="s">
+      <c r="G24" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="1061"/>
     </row>
     <row r="25">
       <c r="A25" s="1062"/>
@@ -5070,10 +5185,10 @@
         <v>3</v>
       </c>
       <c r="C26" s="1072" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="D26" s="1073" t="s">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="E26" s="1074" t="s">
         <v>23</v>
@@ -5087,22 +5202,19 @@
       <c r="H26" s="1077"/>
     </row>
     <row r="27">
-      <c r="A27" s="1078"/>
-      <c r="B27" s="1079" t="s">
+      <c r="A27" s="1224"/>
+      <c r="B27" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="1080"/>
-      <c r="D27" s="1081"/>
-      <c r="E27" s="1082" t="s">
+      <c r="E27" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="1083" t="s">
+      <c r="F27" t="s">
         <v>70</v>
       </c>
-      <c r="G27" s="1084" t="s">
+      <c r="G27" t="s">
         <v>30</v>
       </c>
-      <c r="H27" s="1085"/>
     </row>
     <row r="28">
       <c r="A28" s="1086"/>
@@ -5120,10 +5232,10 @@
         <v>3</v>
       </c>
       <c r="C29" s="1096" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="D29" s="1097" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="E29" s="1098" t="s">
         <v>20</v>
@@ -5152,10 +5264,10 @@
         <v>3</v>
       </c>
       <c r="C31" s="1112" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="D31" s="1113" t="s">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="E31" s="1114" t="s">
         <v>23</v>
@@ -5169,22 +5281,19 @@
       <c r="H31" s="1117"/>
     </row>
     <row r="32">
-      <c r="A32" s="1118"/>
-      <c r="B32" s="1119" t="s">
+      <c r="A32" s="1225"/>
+      <c r="B32" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="1120"/>
-      <c r="D32" s="1121"/>
-      <c r="E32" s="1122" t="s">
+      <c r="E32" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="1123" t="s">
+      <c r="F32" t="s">
         <v>70</v>
       </c>
-      <c r="G32" s="1124" t="s">
+      <c r="G32" t="s">
         <v>51</v>
       </c>
-      <c r="H32" s="1125"/>
     </row>
     <row r="33">
       <c r="A33" s="1126"/>
@@ -5202,10 +5311,10 @@
         <v>3</v>
       </c>
       <c r="C34" s="1136" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="D34" s="1137" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="E34" s="1138" t="s">
         <v>20</v>
@@ -5266,10 +5375,10 @@
         <v>3</v>
       </c>
       <c r="C38" s="1168" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="D38" s="1169" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="E38" s="1170" t="s">
         <v>20</v>
@@ -5288,10 +5397,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="1176" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="D39" s="1177" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="E39" s="1178" t="s">
         <v>20</v>
@@ -5310,14 +5419,20 @@
         <v>3</v>
       </c>
       <c r="C40" s="1184" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="D40" s="1185" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" s="1186"/>
-      <c r="F40" s="1187"/>
-      <c r="G40" s="1188"/>
+        <v>144</v>
+      </c>
+      <c r="E40" s="1186" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="1187" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="1188" t="s">
+        <v>7</v>
+      </c>
       <c r="H40" s="1189"/>
     </row>
     <row r="41">
